--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1680"/>
+  <dimension ref="A1:H1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48904,2159 +48904,2303 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
-      <c r="C1483" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1484" t="n">
-        <v>3</v>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1485" t="n">
-        <v>2</v>
+      <c r="G1485" t="inlineStr"/>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="n">
-        <v>2</v>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1487" t="n">
-        <v>2</v>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1488" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1488" t="n">
-        <v>3</v>
+          <t>4.499%</t>
+        </is>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr"/>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>¥-55B</t>
-        </is>
-      </c>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1489" t="n">
-        <v>1</v>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr"/>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="H1490" t="n">
-        <v>2</v>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr"/>
+      <c r="H1490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="n">
-        <v>3</v>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1492" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H1492" t="n">
-        <v>3</v>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr"/>
+      <c r="H1492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="n">
-        <v>3</v>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="n">
-        <v>3</v>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="H1494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>0.3544%</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="n">
-        <v>3</v>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1495" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="n">
-        <v>3</v>
+      <c r="G1496" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1497" t="n">
-        <v>3</v>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1498" t="inlineStr"/>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1498" t="n">
-        <v>3</v>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1499" t="n">
-        <v>3</v>
+      <c r="G1499" t="inlineStr"/>
+      <c r="H1499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
-        </is>
-      </c>
-      <c r="H1500" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="n">
-        <v>3</v>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H1501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="n">
-        <v>3</v>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>81.5</t>
-        </is>
-      </c>
-      <c r="H1503" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H1504" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H1505" t="n">
-        <v>3</v>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>2.45%</t>
-        </is>
-      </c>
+      <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="n">
-        <v>3</v>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="n">
-        <v>3</v>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>2.74%</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="n">
-        <v>3</v>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F1508" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
+      <c r="G1508" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="n">
-        <v>3</v>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>1861K</t>
+        </is>
+      </c>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>212.75K</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="n">
-        <v>3</v>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>213.0K</t>
+        </is>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>1.13%</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="n">
-        <v>3</v>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="n">
-        <v>3</v>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="n">
-        <v>3</v>
+      <c r="H1513" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>23.0%</t>
-        </is>
-      </c>
-      <c r="H1514" t="n">
-        <v>3</v>
+      <c r="G1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>43.5%</t>
-        </is>
-      </c>
-      <c r="H1515" t="n">
-        <v>2</v>
+      <c r="G1515" t="inlineStr"/>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="H1516" t="n">
-        <v>2</v>
+          <t>0.765M</t>
+        </is>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="inlineStr"/>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>46.5%</t>
-        </is>
-      </c>
-      <c r="H1517" t="n">
-        <v>3</v>
+      <c r="G1517" t="inlineStr"/>
+      <c r="H1517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="H1518" t="n">
-        <v>2</v>
+      <c r="G1518" t="inlineStr"/>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H1519" t="n">
-        <v>2</v>
+          <t>0.397M</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr"/>
+      <c r="H1519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="n">
-        <v>3</v>
+      <c r="H1520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1521" t="n">
-        <v>3</v>
+      <c r="G1521" t="inlineStr"/>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1522" t="n">
-        <v>3</v>
+      <c r="G1522" t="inlineStr"/>
+      <c r="H1522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1523" t="n">
-        <v>3</v>
+      <c r="G1523" t="inlineStr"/>
+      <c r="H1523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1524" t="n">
-        <v>3</v>
+      <c r="G1524" t="inlineStr"/>
+      <c r="H1524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H1525" t="n">
-        <v>2</v>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="inlineStr"/>
+      <c r="H1525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1526" t="n">
-        <v>2</v>
+          <t>7.04%</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr"/>
+      <c r="H1526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="n">
-        <v>2</v>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1528" t="inlineStr"/>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1528" t="n">
-        <v>3</v>
+      <c r="G1528" t="inlineStr"/>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1529" t="inlineStr"/>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
+          <t>BRL209.2B</t>
+        </is>
+      </c>
+      <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="H1529" t="n">
-        <v>2</v>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
+      <c r="H1529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr"/>
+      <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>1859K</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>1861K</t>
-        </is>
-      </c>
-      <c r="H1530" t="n">
-        <v>3</v>
-      </c>
+      <c r="G1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr"/>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>213.0K</t>
-        </is>
-      </c>
-      <c r="H1531" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
-      <c r="H1532" t="n">
-        <v>2</v>
+          <t>$6.83T</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr"/>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="n">
-        <v>3</v>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="n">
-        <v>2</v>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="H1534" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="n">
-        <v>2</v>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="H1535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="n">
-        <v>3</v>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1536" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>0.765M</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="n">
-        <v>3</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1537" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="n">
-        <v>3</v>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H1538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="n">
-        <v>3</v>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>0.397M</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="n">
-        <v>3</v>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="H1540" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>0.646M</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="n">
-        <v>3</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
+      <c r="H1541" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="n">
-        <v>3</v>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H1542" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="n">
-        <v>3</v>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="n">
-        <v>3</v>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="n">
-        <v>3</v>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
+      <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="n">
-        <v>3</v>
+      <c r="H1546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="n">
-        <v>3</v>
+      <c r="H1547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="n">
-        <v>3</v>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
+      <c r="H1548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1549">
-      <c r="A1549" t="inlineStr"/>
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="n">
-        <v>3</v>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1550">
-      <c r="A1550" t="inlineStr"/>
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1550" t="n">
-        <v>3</v>
+          <t>59.1</t>
+        </is>
+      </c>
+      <c r="H1550" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1551" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1552" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>42.2</t>
-        </is>
-      </c>
-      <c r="H1552" t="n">
-        <v>2</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="H1552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H1553" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1554">
@@ -51072,70 +51216,78 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H1554" t="n">
-        <v>3</v>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="H1555" t="n">
-        <v>1</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
@@ -51146,17 +51298,19 @@
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="H1556" t="n">
-        <v>2</v>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1557">
@@ -51172,38 +51326,40 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1557" t="n">
-        <v>2</v>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="H1557" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -51214,53 +51370,57 @@
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="H1558" t="n">
-        <v>2</v>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H1559" t="n">
-        <v>2</v>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1560">
@@ -51276,99 +51436,101 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H1560" t="n">
-        <v>2</v>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="H1560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="H1561" t="n">
-        <v>1</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1562" t="n">
-        <v>1</v>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H1562" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1563">
@@ -51384,85 +51546,107 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1563" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1563" t="n">
-        <v>3</v>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="H1563" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="n">
-        <v>2</v>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>91.4</t>
-        </is>
-      </c>
-      <c r="H1565" t="n">
-        <v>3</v>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -51472,15 +51656,17 @@
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="n">
-        <v>3</v>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1567">
@@ -51491,124 +51677,124 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1567" t="n">
-        <v>2</v>
+          <t>91.4</t>
+        </is>
+      </c>
+      <c r="H1567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="n">
-        <v>3</v>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr"/>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1569" t="n">
-        <v>3</v>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1569" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1570" t="n">
-        <v>3</v>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1571">
@@ -51619,96 +51805,98 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1571" t="n">
-        <v>3</v>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="H1571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1572" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1573" t="n">
-        <v>2</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1574">
@@ -51724,87 +51912,97 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1574" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1574" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1575" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1575" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1576" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1577">
@@ -51820,29 +52018,31 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1577" t="n">
-        <v>2</v>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="H1577" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -51852,33 +52052,31 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>4.1M</t>
-        </is>
-      </c>
-      <c r="H1578" t="n">
-        <v>1</v>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H1578" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -51888,23 +52086,25 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1579" t="n">
-        <v>2</v>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="H1579" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1580">
@@ -51920,27 +52120,29 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1580" t="n">
-        <v>2</v>
+          <t>4.1M</t>
+        </is>
+      </c>
+      <c r="H1580" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1581">
@@ -51956,27 +52158,25 @@
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1581" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1581" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1582">
@@ -51992,27 +52192,29 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1582" t="n">
-        <v>3</v>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1583">
@@ -52028,27 +52230,29 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1583" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1584">
@@ -52064,33 +52268,35 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1584" t="n">
-        <v>3</v>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="H1584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -52100,29 +52306,35 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1585" t="n">
-        <v>3</v>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="H1585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -52132,29 +52344,35 @@
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1586" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -52164,25 +52382,31 @@
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
-      <c r="H1587" t="n">
-        <v>3</v>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -52192,39 +52416,49 @@
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
-      <c r="H1588" t="n">
-        <v>3</v>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="H1588" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr"/>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
@@ -52236,21 +52470,25 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr"/>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
@@ -52262,107 +52500,103 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1591" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr"/>
+      <c r="C1591" t="inlineStr"/>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1591" t="inlineStr"/>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr"/>
       <c r="H1594" t="inlineStr">
@@ -52374,21 +52608,25 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
@@ -52400,17 +52638,17 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
@@ -52426,17 +52664,17 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
@@ -52450,63 +52688,59 @@
       </c>
     </row>
     <row r="1598">
-      <c r="A1598" t="inlineStr"/>
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1599">
-      <c r="A1599" t="inlineStr"/>
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>75.8%</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
           <t>3</t>
@@ -52516,79 +52750,87 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1600" t="inlineStr"/>
-      <c r="C1600" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Ifo Business ClimateJAN</t>
+        </is>
+      </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr"/>
+      <c r="H1600" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
+      <c r="G1601" t="inlineStr"/>
+      <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
           <t>3</t>
@@ -52598,25 +52840,21 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
@@ -52628,63 +52866,63 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>2935K</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -52696,29 +52934,29 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -52730,31 +52968,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -52764,59 +52998,59 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -52828,27 +53062,31 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -52858,49 +53096,65 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr"/>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr"/>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52910,17 +53164,17 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
@@ -52936,25 +53190,21 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
@@ -52966,41 +53216,33 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
+      <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53010,21 +53252,13 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>2</t>
@@ -53034,7 +53268,7 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -53044,31 +53278,27 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -53078,27 +53308,27 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -53108,7 +53338,7 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
@@ -53124,7 +53354,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -53134,27 +53364,23 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -53164,15 +53390,11 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1621" t="inlineStr"/>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
@@ -53184,7 +53406,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53194,7 +53416,7 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
@@ -53208,11 +53430,7 @@
       </c>
     </row>
     <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1623" t="inlineStr"/>
       <c r="B1623" t="inlineStr">
         <is>
           <t>US</t>
@@ -53220,17 +53438,21 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53238,11 +53460,7 @@
       </c>
     </row>
     <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1624" t="inlineStr"/>
       <c r="B1624" t="inlineStr">
         <is>
           <t>US</t>
@@ -53250,17 +53468,25 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53270,81 +53496,77 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr"/>
+      <c r="C1625" t="inlineStr"/>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1625" t="inlineStr"/>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr"/>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -53356,31 +53578,27 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53390,27 +53608,31 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>3</t>
@@ -53420,27 +53642,31 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53450,23 +53676,31 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1631" t="inlineStr">
         <is>
           <t>3</t>
@@ -53476,27 +53710,31 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr"/>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1632" t="inlineStr">
         <is>
           <t>3</t>
@@ -53506,297 +53744,301 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr"/>
-      <c r="C1634" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Unemployment RateQ4</t>
+        </is>
+      </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
-      <c r="H1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>0.745%</t>
+        </is>
+      </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1637" t="inlineStr"/>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr"/>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53806,23 +54048,23 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
@@ -53836,25 +54078,21 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1644" t="inlineStr"/>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
@@ -53866,151 +54104,139 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-21.3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr"/>
@@ -54024,59 +54250,47 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1651" t="inlineStr"/>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
@@ -54088,83 +54302,91 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>85.8</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>96.3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.731%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
@@ -54178,21 +54400,25 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54204,25 +54430,21 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1656" t="inlineStr"/>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54234,37 +54456,37 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>4.532%</t>
+        </is>
+      </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -54274,49 +54496,41 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>$21.45T</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr"/>
+      <c r="C1659" t="inlineStr"/>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1659" t="inlineStr"/>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
@@ -54326,7 +54540,7 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
@@ -54335,88 +54549,104 @@
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54428,27 +54658,31 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1664" t="inlineStr">
         <is>
           <t>2</t>
@@ -54458,29 +54692,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54492,237 +54726,273 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr"/>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>0.595%</t>
+        </is>
+      </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>-21.3</t>
+        </is>
+      </c>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1674" t="inlineStr"/>
       <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
@@ -54734,23 +55004,31 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1675" t="inlineStr">
         <is>
           <t>3</t>
@@ -54760,21 +55038,25 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
@@ -54786,94 +55068,818 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>85.8</t>
+        </is>
+      </c>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr"/>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>96.3</t>
+        </is>
+      </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr"/>
-      <c r="C1679" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>10-Year Green Gilt Auction</t>
+        </is>
+      </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr"/>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr"/>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="E1680" t="inlineStr"/>
       <c r="F1680" t="inlineStr"/>
       <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>10-Year Bund Auction</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr"/>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="inlineStr"/>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr"/>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr"/>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="inlineStr"/>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr"/>
+      <c r="E1684" t="inlineStr"/>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="inlineStr"/>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/24</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr"/>
+      <c r="E1685" t="inlineStr"/>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr"/>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr"/>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr"/>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/24</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr"/>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="inlineStr"/>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Goods Trade Balance AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr"/>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>$ -104.5B</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr"/>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="inlineStr"/>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr"/>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>BoC Monetary Policy Report</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr"/>
+      <c r="E1691" t="inlineStr"/>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="inlineStr"/>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr"/>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr"/>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>BoC Press Conference</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr"/>
+      <c r="E1693" t="inlineStr"/>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="inlineStr"/>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr"/>
+      <c r="E1694" t="inlineStr"/>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="inlineStr"/>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr"/>
+      <c r="E1695" t="inlineStr"/>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="inlineStr"/>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr"/>
+      <c r="E1696" t="inlineStr"/>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="inlineStr"/>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr"/>
+      <c r="E1697" t="inlineStr"/>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="inlineStr"/>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr"/>
+      <c r="E1698" t="inlineStr"/>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="inlineStr"/>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr"/>
+      <c r="E1699" t="inlineStr"/>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="inlineStr"/>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr"/>
+      <c r="E1700" t="inlineStr"/>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="inlineStr"/>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr"/>
+      <c r="E1701" t="inlineStr"/>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="inlineStr"/>
+      <c r="H1701" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr"/>
+      <c r="E1702" t="inlineStr"/>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="inlineStr"/>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr"/>
+      <c r="E1703" t="inlineStr"/>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="inlineStr"/>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr"/>
+      <c r="C1704" t="inlineStr"/>
+      <c r="D1704" t="inlineStr"/>
+      <c r="E1704" t="inlineStr"/>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="inlineStr"/>
+      <c r="H1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr"/>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="inlineStr"/>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr"/>
+      <c r="E1706" t="inlineStr"/>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="inlineStr"/>
+      <c r="H1706" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1706"/>
+  <dimension ref="A1:H1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48933,10 +48933,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1484">
@@ -48967,10 +48965,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -48997,10 +48993,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49027,10 +49021,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49057,10 +49049,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49087,10 +49077,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49117,10 +49105,8 @@
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49147,10 +49133,8 @@
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49177,10 +49161,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49207,10 +49189,8 @@
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49241,10 +49221,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49275,10 +49253,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1495">
@@ -49313,10 +49289,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49347,10 +49321,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49381,10 +49353,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1498">
@@ -49419,10 +49389,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49449,10 +49417,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49483,10 +49449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -49517,10 +49481,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49551,10 +49513,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49585,10 +49545,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49623,10 +49581,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1505">
@@ -49661,10 +49617,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49687,10 +49641,8 @@
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -49721,10 +49673,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49759,10 +49709,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1509">
@@ -49793,10 +49741,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49827,10 +49773,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49865,10 +49809,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1512">
@@ -49895,10 +49837,8 @@
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -49925,10 +49865,8 @@
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -49955,10 +49893,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1515">
@@ -49985,10 +49921,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50015,10 +49949,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50045,10 +49977,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50075,10 +50005,8 @@
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50105,10 +50033,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50135,10 +50061,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50165,10 +50089,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50195,10 +50117,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50225,10 +50145,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50255,10 +50173,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50285,10 +50201,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50315,10 +50229,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50345,10 +50257,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50371,10 +50281,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50401,256 +50309,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
@@ -50662,75 +50604,83 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -50740,23 +50690,23 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
@@ -50768,135 +50718,127 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1544" t="inlineStr">
@@ -50908,61 +50850,61 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>2</t>
@@ -50972,23 +50914,23 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
@@ -51002,199 +50944,203 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
@@ -51206,33 +51152,29 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
@@ -51244,33 +51186,29 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
@@ -51282,67 +51220,67 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
@@ -51354,29 +51292,29 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
@@ -51388,33 +51326,33 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
@@ -51426,215 +51364,215 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
@@ -51646,57 +51584,57 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1567" t="inlineStr"/>
       <c r="H1567" t="inlineStr">
         <is>
           <t>3</t>
@@ -51706,87 +51644,71 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr"/>
+      <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1568" t="inlineStr"/>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
@@ -51800,31 +51722,27 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
         <is>
           <t>3</t>
@@ -51834,31 +51752,27 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1572" t="inlineStr"/>
       <c r="H1572" t="inlineStr">
         <is>
           <t>3</t>
@@ -51868,31 +51782,23 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
@@ -51902,69 +51808,53 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1575" t="inlineStr"/>
       <c r="H1575" t="inlineStr">
         <is>
           <t>2</t>
@@ -51974,31 +51864,27 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
         <is>
           <t>3</t>
@@ -52008,169 +51894,145 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
@@ -52182,71 +52044,63 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1583" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -52258,35 +52112,27 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1584" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
@@ -52296,35 +52142,27 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
       <c r="H1585" t="inlineStr">
         <is>
           <t>3</t>
@@ -52334,67 +52172,63 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52406,7 +52240,7 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -52416,51 +52250,55 @@
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
           <t>3</t>
@@ -52470,25 +52308,21 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1590" t="inlineStr"/>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
@@ -52500,45 +52334,49 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1591" t="inlineStr"/>
-      <c r="C1591" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr"/>
-      <c r="H1591" t="inlineStr"/>
+      <c r="H1591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1592" t="inlineStr"/>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
         <is>
           <t>3</t>
@@ -52548,107 +52386,103 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1593" t="inlineStr"/>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1594" t="inlineStr"/>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
@@ -52664,17 +52498,17 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
@@ -52690,55 +52524,47 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1598" t="inlineStr"/>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1599" t="inlineStr"/>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
@@ -52748,59 +52574,63 @@
       </c>
     </row>
     <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1600" t="inlineStr"/>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1601" t="inlineStr"/>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52810,121 +52640,109 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -52934,29 +52752,29 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -52968,27 +52786,31 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -52998,27 +52820,31 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53028,97 +52854,93 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -53130,31 +52952,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53164,17 +52982,17 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
@@ -53190,17 +53008,17 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
@@ -53216,17 +53034,17 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
@@ -53242,33 +53060,37 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr"/>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -53278,27 +53100,31 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr"/>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -53308,17 +53134,21 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>2</t>
@@ -53328,7 +53158,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -53338,13 +53168,21 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr"/>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53354,7 +53192,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -53364,11 +53202,15 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
@@ -53380,7 +53222,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -53390,7 +53232,7 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
@@ -53406,7 +53248,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53416,21 +53258,29 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
-      <c r="A1623" t="inlineStr"/>
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1623" t="inlineStr">
         <is>
           <t>US</t>
@@ -53438,21 +53288,17 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53460,7 +53306,11 @@
       </c>
     </row>
     <row r="1624">
-      <c r="A1624" t="inlineStr"/>
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1624" t="inlineStr">
         <is>
           <t>US</t>
@@ -53468,25 +53318,13 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53496,107 +53334,107 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
+      <c r="G1626" t="inlineStr"/>
+      <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
@@ -53608,29 +53446,29 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -53642,29 +53480,29 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -53676,31 +53514,27 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
           <t>3</t>
@@ -53710,31 +53544,27 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
           <t>3</t>
@@ -53744,87 +53574,79 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
@@ -53838,43 +53660,31 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
@@ -53883,126 +53693,138 @@
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -54014,61 +53836,61 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1643" t="inlineStr"/>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54078,21 +53900,25 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr"/>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
@@ -54104,53 +53930,53 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
@@ -54164,133 +53990,153 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
@@ -54302,29 +54148,29 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -54336,31 +54182,27 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54370,81 +54212,85 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54456,25 +54302,21 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
@@ -54486,23 +54328,23 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr"/>
@@ -54516,21 +54358,37 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
@@ -54540,7 +54398,7 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
@@ -54556,165 +54414,133 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54726,273 +54552,249 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr"/>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1671" t="inlineStr"/>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1672" t="inlineStr"/>
       <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1672" t="inlineStr"/>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1673" t="inlineStr"/>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1674" t="inlineStr"/>
       <c r="F1674" t="inlineStr"/>
       <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
@@ -55004,31 +54806,23 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1675" t="inlineStr"/>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1675" t="inlineStr"/>
       <c r="H1675" t="inlineStr">
         <is>
           <t>3</t>
@@ -55038,25 +54832,21 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1676" t="inlineStr"/>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
@@ -55068,85 +54858,73 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1677" t="inlineStr"/>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr"/>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1678" t="inlineStr"/>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1679" t="inlineStr"/>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
       <c r="H1679" t="inlineStr">
@@ -55158,17 +54936,17 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
@@ -55184,67 +54962,51 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr"/>
+      <c r="C1681" t="inlineStr"/>
       <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1681" t="inlineStr"/>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1681" t="inlineStr"/>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1682" t="inlineStr"/>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
@@ -55254,7 +55016,7 @@
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
@@ -55263,624 +55025,6 @@
       <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr"/>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr"/>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr"/>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr"/>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr"/>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr"/>
-      <c r="C1704" t="inlineStr"/>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr"/>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr"/>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1683"/>
+  <dimension ref="A1:H1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50341,10 +50341,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50379,10 +50377,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50417,10 +50413,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50451,10 +50445,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50489,10 +50481,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1535">
@@ -50523,10 +50513,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -50561,10 +50549,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1537">
@@ -50595,10 +50581,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1538">
@@ -50633,10 +50617,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50671,10 +50653,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50709,10 +50689,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1541">
@@ -50747,10 +50725,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1542">
@@ -50781,10 +50757,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -50807,10 +50781,8 @@
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1544">
@@ -50841,10 +50813,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -50867,10 +50837,8 @@
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -50905,10 +50873,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1547">
@@ -50935,10 +50901,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -50969,10 +50933,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51003,10 +50965,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51037,10 +50997,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51075,10 +51033,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1552">
@@ -51109,10 +51065,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1553">
@@ -51143,10 +51097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51177,10 +51129,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1555">
@@ -51211,10 +51161,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1556">
@@ -51245,10 +51193,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1557">
@@ -51283,10 +51229,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1558">
@@ -51317,10 +51261,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1559">
@@ -51355,10 +51297,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1560">
@@ -51393,10 +51333,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51431,10 +51369,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51469,10 +51405,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51507,10 +51441,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51541,10 +51473,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51575,10 +51505,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
@@ -51605,10 +51533,8 @@
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1567">
@@ -51635,54 +51561,56 @@
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr"/>
-      <c r="C1568" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr"/>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1569" t="inlineStr"/>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
           <t>3</t>
@@ -51692,107 +51620,103 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1570" t="inlineStr"/>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr"/>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
@@ -51808,17 +51732,17 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
@@ -51834,55 +51758,47 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr"/>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1576" t="inlineStr"/>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
@@ -51892,59 +51808,63 @@
       </c>
     </row>
     <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1577" t="inlineStr"/>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1578" t="inlineStr"/>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1578" t="inlineStr">
         <is>
           <t>3</t>
@@ -51954,121 +51874,109 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr"/>
+      <c r="C1579" t="inlineStr"/>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1579" t="inlineStr"/>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
         <is>
           <t>3</t>
@@ -52078,29 +51986,29 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -52112,27 +52020,31 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
@@ -52142,27 +52054,31 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1585" t="inlineStr">
         <is>
           <t>3</t>
@@ -52172,97 +52088,93 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1587" t="inlineStr"/>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52274,31 +52186,27 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
           <t>3</t>
@@ -52308,17 +52216,17 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
@@ -52334,17 +52242,17 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
@@ -52360,17 +52268,17 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
@@ -52386,33 +52294,37 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr"/>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -52422,27 +52334,31 @@
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -52452,17 +52368,21 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1595" t="inlineStr">
         <is>
           <t>2</t>
@@ -52472,7 +52392,7 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -52482,13 +52402,21 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr"/>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1596" t="inlineStr">
         <is>
           <t>3</t>
@@ -52498,7 +52426,7 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -52508,11 +52436,15 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr"/>
       <c r="H1597" t="inlineStr">
@@ -52524,7 +52456,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -52534,7 +52466,7 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
@@ -52550,7 +52482,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -52560,21 +52492,29 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr"/>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1600">
-      <c r="A1600" t="inlineStr"/>
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1600" t="inlineStr">
         <is>
           <t>US</t>
@@ -52582,21 +52522,17 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
           <t>3</t>
@@ -52604,7 +52540,11 @@
       </c>
     </row>
     <row r="1601">
-      <c r="A1601" t="inlineStr"/>
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1601" t="inlineStr">
         <is>
           <t>US</t>
@@ -52612,25 +52552,13 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52640,107 +52568,107 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
+      <c r="G1603" t="inlineStr"/>
+      <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1603" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
@@ -52752,29 +52680,29 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -52786,29 +52714,29 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -52820,31 +52748,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -52854,31 +52778,27 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -52888,87 +52808,79 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
@@ -52982,43 +52894,31 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
@@ -53027,126 +52927,138 @@
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr"/>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -53158,61 +53070,61 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53222,21 +53134,25 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
@@ -53248,53 +53164,53 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
@@ -53308,133 +53224,153 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
@@ -53446,29 +53382,29 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -53480,31 +53416,27 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53514,81 +53446,85 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -53600,25 +53536,21 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -53630,23 +53562,23 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
@@ -53660,21 +53592,37 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
@@ -53684,7 +53632,7 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
@@ -53700,165 +53648,133 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1641" t="inlineStr"/>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -53870,273 +53786,249 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr"/>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1645" t="inlineStr"/>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1649" t="inlineStr"/>
       <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1651" t="inlineStr"/>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
@@ -54148,31 +54040,23 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
           <t>3</t>
@@ -54182,25 +54066,21 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1653" t="inlineStr"/>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
@@ -54212,85 +54092,73 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1656" t="inlineStr"/>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54302,17 +54170,17 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
@@ -54328,67 +54196,51 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr"/>
+      <c r="C1658" t="inlineStr"/>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1658" t="inlineStr"/>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
@@ -54398,7 +54250,7 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
@@ -54407,625 +54259,41 @@
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr"/>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr"/>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr"/>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr"/>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr"/>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr"/>
-      <c r="C1681" t="inlineStr"/>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr"/>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1715"/>
+  <dimension ref="A1:H1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48095,10 +48095,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48129,10 +48127,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48167,10 +48163,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48201,10 +48195,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48231,10 +48223,8 @@
       </c>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -48269,10 +48259,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48295,10 +48283,8 @@
       <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48325,10 +48311,8 @@
       </c>
       <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48355,10 +48339,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48403,10 +48385,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48437,10 +48417,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1467">
@@ -48467,10 +48445,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1468">
@@ -48505,10 +48481,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1469">
@@ -48543,10 +48517,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48581,10 +48553,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1471">
@@ -48619,10 +48589,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48649,10 +48617,8 @@
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48687,10 +48653,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48717,10 +48681,8 @@
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48747,10 +48709,8 @@
       </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48777,10 +48737,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48807,10 +48765,8 @@
       </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48841,10 +48797,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48875,10 +48829,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48909,10 +48861,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -48943,10 +48893,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -48973,10 +48921,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49003,10 +48949,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49037,10 +48981,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49075,10 +49017,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1486">
@@ -49109,10 +49049,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49139,10 +49077,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49169,10 +49105,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49199,10 +49133,8 @@
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49229,10 +49161,8 @@
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49259,10 +49189,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49289,10 +49217,8 @@
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49319,10 +49245,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49349,10 +49273,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49383,10 +49305,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49417,10 +49337,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1497">
@@ -49455,10 +49373,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1498">
@@ -49489,10 +49405,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49523,10 +49437,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49561,10 +49473,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49591,10 +49501,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49625,10 +49533,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49659,10 +49565,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49693,10 +49597,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49727,10 +49629,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49765,10 +49665,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1507">
@@ -49803,10 +49701,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1508">
@@ -49829,10 +49725,8 @@
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1509">
@@ -49863,10 +49757,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49901,10 +49793,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1511">
@@ -49935,10 +49825,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -49969,10 +49857,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50007,10 +49893,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -50037,10 +49921,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50067,10 +49949,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1516">
@@ -50097,10 +49977,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50127,10 +50005,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50157,10 +50033,8 @@
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50187,10 +50061,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50217,10 +50089,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50247,10 +50117,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50277,10 +50145,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50307,10 +50173,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50337,10 +50201,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50367,10 +50229,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50397,10 +50257,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50427,10 +50285,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50457,10 +50313,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50487,10 +50341,8 @@
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50513,10 +50365,8 @@
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50543,256 +50393,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr"/>
-      <c r="C1532" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr"/>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50804,75 +50688,83 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
@@ -50882,23 +50774,23 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
@@ -50910,135 +50802,127 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
@@ -51050,61 +50934,61 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1548" t="inlineStr">
         <is>
           <t>2</t>
@@ -51114,23 +50998,23 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
@@ -51144,199 +51028,203 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
@@ -51348,33 +51236,29 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
@@ -51386,33 +51270,29 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
@@ -51424,67 +51304,67 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
@@ -51496,29 +51376,29 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1560" t="inlineStr">
@@ -51530,33 +51410,33 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
@@ -51568,215 +51448,215 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1562" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
@@ -51788,57 +51668,57 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
           <t>3</t>
@@ -51848,87 +51728,71 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr"/>
+      <c r="C1570" t="inlineStr"/>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr"/>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1570" t="inlineStr"/>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
@@ -51942,31 +51806,27 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
@@ -51976,31 +51836,27 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
           <t>3</t>
@@ -52010,31 +51866,23 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1575" t="inlineStr"/>
       <c r="H1575" t="inlineStr">
         <is>
           <t>3</t>
@@ -52044,69 +51892,53 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
           <t>2</t>
@@ -52116,31 +51948,27 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
         <is>
           <t>3</t>
@@ -52150,169 +51978,145 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -52324,71 +52128,63 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1584" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -52400,35 +52196,27 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
       <c r="H1586" t="inlineStr">
         <is>
           <t>3</t>
@@ -52438,35 +52226,27 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
       <c r="H1587" t="inlineStr">
         <is>
           <t>3</t>
@@ -52476,67 +52256,63 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52548,7 +52324,7 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
@@ -52558,51 +52334,55 @@
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1591" t="inlineStr">
         <is>
           <t>3</t>
@@ -52612,25 +52392,21 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1592" t="inlineStr"/>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
@@ -52642,45 +52418,49 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr"/>
-      <c r="C1593" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr"/>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr"/>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1594" t="inlineStr"/>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1594" t="inlineStr"/>
       <c r="H1594" t="inlineStr">
         <is>
           <t>3</t>
@@ -52690,107 +52470,103 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1595" t="inlineStr"/>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1596" t="inlineStr"/>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr"/>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
@@ -52806,17 +52582,17 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
@@ -52832,55 +52608,47 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1600" t="inlineStr"/>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
@@ -52890,59 +52658,63 @@
       </c>
     </row>
     <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1602" t="inlineStr"/>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1603" t="inlineStr"/>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52952,121 +52724,109 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53076,29 +52836,29 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -53110,27 +52870,31 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53140,27 +52904,31 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53170,97 +52938,93 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -53272,31 +53036,27 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
           <t>3</t>
@@ -53306,17 +53066,17 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
@@ -53332,17 +53092,17 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
@@ -53358,17 +53118,17 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
@@ -53384,33 +53144,37 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -53420,27 +53184,31 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr"/>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -53450,17 +53218,21 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
           <t>2</t>
@@ -53470,7 +53242,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -53480,13 +53252,21 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53496,7 +53276,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53506,11 +53286,15 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
@@ -53522,7 +53306,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -53532,7 +53316,7 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
@@ -53548,7 +53332,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53558,21 +53342,29 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
-      <c r="A1625" t="inlineStr"/>
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1625" t="inlineStr">
         <is>
           <t>US</t>
@@ -53580,21 +53372,17 @@
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53602,7 +53390,11 @@
       </c>
     </row>
     <row r="1626">
-      <c r="A1626" t="inlineStr"/>
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1626" t="inlineStr">
         <is>
           <t>US</t>
@@ -53610,25 +53402,13 @@
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53638,107 +53418,107 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
+      <c r="G1628" t="inlineStr"/>
+      <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
@@ -53750,29 +53530,29 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -53784,29 +53564,29 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -53818,31 +53598,27 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
           <t>3</t>
@@ -53852,31 +53628,27 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53886,87 +53658,79 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
@@ -53980,43 +53744,31 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
@@ -54025,126 +53777,138 @@
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -54156,61 +53920,61 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1645" t="inlineStr"/>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1645" t="inlineStr">
         <is>
           <t>3</t>
@@ -54220,21 +53984,25 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
-      <c r="E1646" t="inlineStr"/>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
@@ -54246,53 +54014,53 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
@@ -54306,133 +54074,153 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr"/>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
@@ -54444,29 +54232,29 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
@@ -54478,31 +54266,27 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54512,81 +54296,85 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
@@ -54598,25 +54386,21 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
@@ -54628,23 +54412,23 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
@@ -54658,21 +54442,37 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1661" t="inlineStr"/>
       <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
@@ -54682,7 +54482,7 @@
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
@@ -54698,165 +54498,133 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1665" t="inlineStr"/>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1667" t="inlineStr">
@@ -54868,273 +54636,249 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1671" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1672" t="inlineStr"/>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1673" t="inlineStr"/>
       <c r="F1673" t="inlineStr"/>
       <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1674" t="inlineStr"/>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1675" t="inlineStr"/>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1675" t="inlineStr"/>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1676" t="inlineStr"/>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
@@ -55146,31 +54890,23 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1677" t="inlineStr"/>
       <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1677" t="inlineStr"/>
       <c r="H1677" t="inlineStr">
         <is>
           <t>3</t>
@@ -55180,25 +54916,21 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1678" t="inlineStr"/>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
@@ -55210,85 +54942,73 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1679" t="inlineStr"/>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1680" t="inlineStr"/>
       <c r="F1680" t="inlineStr"/>
       <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1681" t="inlineStr"/>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr"/>
       <c r="H1681" t="inlineStr">
@@ -55300,17 +55020,17 @@
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
@@ -55326,67 +55046,51 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr"/>
+      <c r="C1683" t="inlineStr"/>
       <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1683" t="inlineStr"/>
       <c r="F1683" t="inlineStr"/>
       <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1683" t="inlineStr"/>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1684" t="inlineStr"/>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
@@ -55396,7 +55100,7 @@
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr"/>
@@ -55405,50 +55109,58 @@
       <c r="G1685" t="inlineStr"/>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr"/>
@@ -55464,17 +55176,17 @@
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr"/>
@@ -55490,21 +55202,25 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr"/>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1689" t="inlineStr"/>
       <c r="G1689" t="inlineStr"/>
       <c r="H1689" t="inlineStr">
@@ -55516,31 +55232,23 @@
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1690" t="inlineStr"/>
       <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1690" t="inlineStr"/>
       <c r="H1690" t="inlineStr">
         <is>
           <t>2</t>
@@ -55550,688 +55258,66 @@
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr"/>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr"/>
       <c r="E1692" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1692" t="inlineStr"/>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr"/>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr"/>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr"/>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr"/>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr"/>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr"/>
-      <c r="C1706" t="inlineStr"/>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr"/>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr"/>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr"/>
-      <c r="E1707" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr"/>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr"/>
-      <c r="E1708" t="inlineStr"/>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr"/>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr"/>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr"/>
-      <c r="E1710" t="inlineStr"/>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr"/>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr"/>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr"/>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>05:31 AM</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr"/>
-      <c r="E1712" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr"/>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr"/>
-      <c r="E1713" t="inlineStr"/>
-      <c r="F1713" t="inlineStr"/>
-      <c r="G1713" t="inlineStr"/>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1715" t="inlineStr"/>
-      <c r="E1715" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1715" t="inlineStr"/>
-      <c r="G1715" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1715" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1692"/>
+  <dimension ref="A1:H1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50425,10 +50425,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50463,10 +50461,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50501,10 +50497,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50535,10 +50529,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50573,10 +50565,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1537">
@@ -50607,10 +50597,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1538">
@@ -50645,10 +50633,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50679,10 +50665,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50717,10 +50701,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50755,10 +50737,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -50793,10 +50773,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1543">
@@ -50831,10 +50809,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1544">
@@ -50865,10 +50841,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -50891,10 +50865,8 @@
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -50925,10 +50897,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -50951,10 +50921,8 @@
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -50989,10 +50957,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51019,10 +50985,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51053,10 +51017,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51087,10 +51049,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51121,10 +51081,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51159,10 +51117,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1554">
@@ -51193,10 +51149,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1555">
@@ -51227,10 +51181,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51261,10 +51213,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1557">
@@ -51295,10 +51245,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1558">
@@ -51329,10 +51277,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1559">
@@ -51367,10 +51313,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1560">
@@ -51401,10 +51345,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1561">
@@ -51439,10 +51381,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1562">
@@ -51477,10 +51417,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51515,10 +51453,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51553,10 +51489,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51591,10 +51525,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
@@ -51625,10 +51557,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1567">
@@ -51659,10 +51589,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51689,10 +51617,8 @@
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1569">
@@ -51719,54 +51645,56 @@
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr"/>
-      <c r="C1570" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr"/>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr"/>
+      <c r="H1570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
         <is>
           <t>3</t>
@@ -51776,107 +51704,103 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr"/>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
@@ -51892,17 +51816,17 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
@@ -51918,55 +51842,47 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1578" t="inlineStr"/>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
@@ -51976,59 +51892,63 @@
       </c>
     </row>
     <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1579" t="inlineStr"/>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1580" t="inlineStr"/>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>3</t>
@@ -52038,121 +51958,109 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr"/>
+      <c r="C1581" t="inlineStr"/>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1581" t="inlineStr"/>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
@@ -52162,29 +52070,29 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -52196,27 +52104,31 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1586" t="inlineStr">
         <is>
           <t>3</t>
@@ -52226,27 +52138,31 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1587" t="inlineStr">
         <is>
           <t>3</t>
@@ -52256,97 +52172,93 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52358,31 +52270,27 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1591" t="inlineStr"/>
       <c r="H1591" t="inlineStr">
         <is>
           <t>3</t>
@@ -52392,17 +52300,17 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
@@ -52418,17 +52326,17 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
@@ -52444,17 +52352,17 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
@@ -52470,33 +52378,37 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr"/>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -52506,27 +52418,31 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr"/>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -52536,17 +52452,21 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1597" t="inlineStr">
         <is>
           <t>2</t>
@@ -52556,7 +52476,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -52566,13 +52486,21 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr"/>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1598" t="inlineStr">
         <is>
           <t>3</t>
@@ -52582,7 +52510,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -52592,11 +52520,15 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
-      <c r="E1599" t="inlineStr"/>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
@@ -52608,7 +52540,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -52618,7 +52550,7 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
@@ -52634,7 +52566,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -52644,21 +52576,29 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1602">
-      <c r="A1602" t="inlineStr"/>
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1602" t="inlineStr">
         <is>
           <t>US</t>
@@ -52666,21 +52606,17 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
           <t>3</t>
@@ -52688,7 +52624,11 @@
       </c>
     </row>
     <row r="1603">
-      <c r="A1603" t="inlineStr"/>
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1603" t="inlineStr">
         <is>
           <t>US</t>
@@ -52696,25 +52636,13 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52724,107 +52652,107 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr"/>
-      <c r="C1604" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr"/>
+      <c r="H1604" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
+      <c r="G1605" t="inlineStr"/>
+      <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1605" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
@@ -52836,29 +52764,29 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -52870,29 +52798,29 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -52904,31 +52832,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -52938,31 +52862,27 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>3</t>
@@ -52972,87 +52892,79 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1612" t="inlineStr"/>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
@@ -53066,43 +52978,31 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr"/>
+      <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr"/>
-      <c r="H1615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1615" t="inlineStr"/>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
@@ -53111,126 +53011,138 @@
       <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr"/>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53242,61 +53154,61 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1622" t="inlineStr"/>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1622" t="inlineStr">
         <is>
           <t>3</t>
@@ -53306,21 +53218,25 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
@@ -53332,53 +53248,53 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
@@ -53392,133 +53308,153 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr"/>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
@@ -53530,29 +53466,29 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -53564,31 +53500,27 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
           <t>3</t>
@@ -53598,81 +53530,85 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -53684,25 +53620,21 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
@@ -53714,23 +53646,23 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
@@ -53744,21 +53676,37 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr"/>
-      <c r="C1638" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
@@ -53768,7 +53716,7 @@
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
@@ -53784,165 +53732,133 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1641" t="inlineStr"/>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1642" t="inlineStr"/>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1643" t="inlineStr"/>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -53954,273 +53870,249 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr"/>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr"/>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1649" t="inlineStr"/>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1651" t="inlineStr"/>
       <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1653" t="inlineStr"/>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
@@ -54232,31 +54124,23 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
           <t>3</t>
@@ -54266,25 +54150,21 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54296,85 +54176,73 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1656" t="inlineStr"/>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
@@ -54386,17 +54254,17 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
@@ -54412,67 +54280,51 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr"/>
+      <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1660" t="inlineStr"/>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
@@ -54482,7 +54334,7 @@
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
@@ -54491,50 +54343,58 @@
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr"/>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr"/>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
@@ -54550,17 +54410,17 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
@@ -54576,21 +54436,25 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr"/>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
@@ -54602,31 +54466,23 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>2</t>
@@ -54636,688 +54492,66 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1671" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr"/>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr"/>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr"/>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr"/>
-      <c r="C1683" t="inlineStr"/>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr"/>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr"/>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>05:31 AM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1692" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1669"/>
+  <dimension ref="A1:H1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48346,2159 +48346,2303 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H1464" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1465" t="n">
-        <v>3</v>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H1465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1466" t="n">
-        <v>2</v>
+      <c r="G1466" t="inlineStr"/>
+      <c r="H1466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="n">
-        <v>2</v>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1468" t="n">
-        <v>2</v>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
+      <c r="H1468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1469" t="n">
-        <v>3</v>
+          <t>4.499%</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>¥-55B</t>
-        </is>
-      </c>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1470" t="n">
-        <v>1</v>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr"/>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="H1471" t="n">
-        <v>2</v>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="n">
-        <v>3</v>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H1473" t="n">
-        <v>3</v>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="n">
-        <v>3</v>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="n">
-        <v>3</v>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>0.3544%</t>
-        </is>
-      </c>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="n">
-        <v>3</v>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="n">
-        <v>3</v>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1478" t="n">
-        <v>3</v>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1479" t="inlineStr"/>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1479" t="n">
-        <v>3</v>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1480" t="n">
-        <v>3</v>
+      <c r="G1480" t="inlineStr"/>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
-        </is>
-      </c>
-      <c r="H1481" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="n">
-        <v>3</v>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H1482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="n">
-        <v>3</v>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>81.5</t>
-        </is>
-      </c>
-      <c r="H1484" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H1485" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H1486" t="n">
-        <v>3</v>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>2.45%</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="n">
-        <v>3</v>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="n">
-        <v>3</v>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2.74%</t>
-        </is>
-      </c>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="n">
-        <v>3</v>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F1489" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="n">
-        <v>3</v>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>1861K</t>
+        </is>
+      </c>
+      <c r="H1490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>212.75K</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="n">
-        <v>3</v>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>213.0K</t>
+        </is>
+      </c>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.13%</t>
-        </is>
-      </c>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="n">
-        <v>3</v>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1492" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
+      <c r="H1492" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="n">
-        <v>3</v>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="n">
-        <v>3</v>
+      <c r="H1494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>23.0%</t>
-        </is>
-      </c>
-      <c r="H1495" t="n">
-        <v>3</v>
+      <c r="G1495" t="inlineStr"/>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>43.5%</t>
-        </is>
-      </c>
-      <c r="H1496" t="n">
-        <v>2</v>
+      <c r="G1496" t="inlineStr"/>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="H1497" t="n">
-        <v>2</v>
+          <t>0.765M</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="inlineStr"/>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>46.5%</t>
-        </is>
-      </c>
-      <c r="H1498" t="n">
-        <v>3</v>
+      <c r="G1498" t="inlineStr"/>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="H1499" t="n">
-        <v>2</v>
+      <c r="G1499" t="inlineStr"/>
+      <c r="H1499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H1500" t="n">
-        <v>2</v>
+          <t>0.397M</t>
+        </is>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr"/>
+      <c r="H1500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="n">
-        <v>3</v>
+      <c r="H1501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1502" t="n">
-        <v>3</v>
+      <c r="G1502" t="inlineStr"/>
+      <c r="H1502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1503" t="n">
-        <v>3</v>
+      <c r="G1503" t="inlineStr"/>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1504" t="n">
-        <v>3</v>
+      <c r="G1504" t="inlineStr"/>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1505" t="n">
-        <v>3</v>
+      <c r="G1505" t="inlineStr"/>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H1506" t="n">
-        <v>2</v>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1507" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1507" t="n">
-        <v>2</v>
+          <t>7.04%</t>
+        </is>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="inlineStr"/>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="n">
-        <v>2</v>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1509" t="inlineStr"/>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1509" t="n">
-        <v>3</v>
+      <c r="G1509" t="inlineStr"/>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1510" t="inlineStr"/>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
+          <t>BRL209.2B</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="H1510" t="n">
-        <v>2</v>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr"/>
+      <c r="C1511" t="inlineStr"/>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1859K</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>1861K</t>
-        </is>
-      </c>
-      <c r="H1511" t="n">
-        <v>3</v>
-      </c>
+      <c r="G1511" t="inlineStr"/>
+      <c r="H1511" t="inlineStr"/>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>213.0K</t>
-        </is>
-      </c>
-      <c r="H1512" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
-      <c r="H1513" t="n">
-        <v>2</v>
+          <t>$6.83T</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
+      <c r="H1513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="n">
-        <v>3</v>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="n">
-        <v>2</v>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="n">
-        <v>2</v>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="n">
-        <v>3</v>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1517" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>0.765M</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="n">
-        <v>3</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="n">
-        <v>3</v>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H1519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="n">
-        <v>3</v>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>0.397M</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="n">
-        <v>3</v>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.646M</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="n">
-        <v>3</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
+      <c r="H1522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="n">
-        <v>3</v>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H1523" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="n">
-        <v>3</v>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="n">
-        <v>3</v>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="n">
-        <v>3</v>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1526" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
+      <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="n">
-        <v>3</v>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="n">
-        <v>3</v>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="n">
-        <v>3</v>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
+      <c r="H1529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1530">
-      <c r="A1530" t="inlineStr"/>
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="n">
-        <v>3</v>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1531">
-      <c r="A1531" t="inlineStr"/>
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1531" t="n">
-        <v>3</v>
+          <t>59.1</t>
+        </is>
+      </c>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1532" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>42.2</t>
-        </is>
-      </c>
-      <c r="H1533" t="n">
-        <v>2</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H1534" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1535">
@@ -50514,70 +50658,78 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H1535" t="n">
-        <v>3</v>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="H1535" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="H1536" t="n">
-        <v>1</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="H1536" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -50588,17 +50740,19 @@
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="H1537" t="n">
-        <v>2</v>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H1537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1538">
@@ -50614,38 +50768,40 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1538" t="n">
-        <v>2</v>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="H1538" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
@@ -50656,53 +50812,57 @@
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="H1539" t="n">
-        <v>2</v>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="H1539" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H1540" t="n">
-        <v>2</v>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1540" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1541">
@@ -50718,99 +50878,101 @@
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H1541" t="n">
-        <v>2</v>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="H1541" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="H1542" t="n">
-        <v>1</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H1542" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1543" t="n">
-        <v>1</v>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H1543" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1544">
@@ -50826,85 +50988,107 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1544" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1544" t="n">
-        <v>3</v>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="H1544" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="n">
-        <v>2</v>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>91.4</t>
-        </is>
-      </c>
-      <c r="H1546" t="n">
-        <v>3</v>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="H1546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -50914,15 +51098,17 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="n">
-        <v>3</v>
+      <c r="H1547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1548">
@@ -50933,124 +51119,124 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1548" t="n">
-        <v>2</v>
+          <t>91.4</t>
+        </is>
+      </c>
+      <c r="H1548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="n">
-        <v>3</v>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1550" t="n">
-        <v>3</v>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1550" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1551" t="n">
-        <v>3</v>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1552">
@@ -51061,96 +51247,98 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1552" t="n">
-        <v>3</v>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="H1552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1553" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1554" t="n">
-        <v>2</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1555">
@@ -51166,87 +51354,97 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1555" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1556" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1557" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1558">
@@ -51262,29 +51460,31 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1558" t="n">
-        <v>2</v>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -51294,33 +51494,31 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>4.1M</t>
-        </is>
-      </c>
-      <c r="H1559" t="n">
-        <v>1</v>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -51330,23 +51528,25 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1560" t="n">
-        <v>2</v>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="H1560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1561">
@@ -51362,27 +51562,29 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1561" t="n">
-        <v>2</v>
+          <t>4.1M</t>
+        </is>
+      </c>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1562">
@@ -51398,27 +51600,25 @@
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1562" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1562" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1563">
@@ -51434,27 +51634,29 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1563" t="n">
-        <v>3</v>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="H1563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1564">
@@ -51470,27 +51672,29 @@
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1564" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1565">
@@ -51506,33 +51710,35 @@
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1565" t="n">
-        <v>3</v>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -51542,29 +51748,35 @@
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1566" t="n">
-        <v>3</v>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -51574,29 +51786,35 @@
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1567" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -51606,25 +51824,31 @@
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="n">
-        <v>3</v>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -51634,39 +51858,49 @@
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="n">
-        <v>3</v>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="H1569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
@@ -51678,21 +51912,25 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
@@ -51704,107 +51942,103 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr"/>
+      <c r="C1572" t="inlineStr"/>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1572" t="inlineStr"/>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr"/>
       <c r="H1575" t="inlineStr">
@@ -51816,21 +52050,25 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
@@ -51842,17 +52080,17 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
@@ -51868,17 +52106,17 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
@@ -51892,63 +52130,59 @@
       </c>
     </row>
     <row r="1579">
-      <c r="A1579" t="inlineStr"/>
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
-      <c r="A1580" t="inlineStr"/>
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>75.8%</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
           <t>3</t>
@@ -51958,79 +52192,87 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr"/>
-      <c r="C1581" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Ifo Business ClimateJAN</t>
+        </is>
+      </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
+      </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr"/>
+      <c r="H1581" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
           <t>3</t>
@@ -52040,25 +52282,21 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1584" t="inlineStr"/>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
@@ -52070,63 +52308,63 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>2935K</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -52138,29 +52376,29 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52172,31 +52410,27 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1588" t="inlineStr"/>
       <c r="H1588" t="inlineStr">
         <is>
           <t>3</t>
@@ -52206,59 +52440,59 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52270,27 +52504,31 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1591" t="inlineStr">
         <is>
           <t>3</t>
@@ -52300,49 +52538,65 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
-      <c r="E1592" t="inlineStr"/>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr"/>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1593" t="inlineStr">
         <is>
           <t>3</t>
@@ -52352,17 +52606,17 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
@@ -52378,25 +52632,21 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
+      <c r="E1595" t="inlineStr"/>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
@@ -52408,41 +52658,33 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
+      <c r="E1596" t="inlineStr"/>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1596" t="inlineStr"/>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -52452,21 +52694,13 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1597" t="inlineStr"/>
       <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1597" t="inlineStr"/>
       <c r="H1597" t="inlineStr">
         <is>
           <t>2</t>
@@ -52476,7 +52710,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -52486,31 +52720,27 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1598" t="inlineStr"/>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -52520,27 +52750,27 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -52550,7 +52780,7 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
@@ -52566,7 +52796,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -52576,27 +52806,23 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -52606,15 +52832,11 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
@@ -52626,7 +52848,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -52636,7 +52858,7 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
@@ -52650,11 +52872,7 @@
       </c>
     </row>
     <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1604" t="inlineStr"/>
       <c r="B1604" t="inlineStr">
         <is>
           <t>US</t>
@@ -52662,17 +52880,21 @@
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr"/>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1604" t="inlineStr">
         <is>
           <t>3</t>
@@ -52680,11 +52902,7 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1605" t="inlineStr"/>
       <c r="B1605" t="inlineStr">
         <is>
           <t>US</t>
@@ -52692,17 +52910,25 @@
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -52712,81 +52938,77 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1606" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr"/>
+      <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
-      <c r="H1606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1606" t="inlineStr"/>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr"/>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -52798,31 +53020,27 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -52832,27 +53050,31 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -52862,27 +53084,31 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
           <t>3</t>
@@ -52892,23 +53118,31 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr"/>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52918,27 +53152,31 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr"/>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
@@ -52948,297 +53186,301 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr"/>
-      <c r="C1615" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>Unemployment RateQ4</t>
+        </is>
+      </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr"/>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
-      <c r="H1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="H1615" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr"/>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>0.745%</t>
+        </is>
+      </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1617" t="inlineStr"/>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1618" t="inlineStr"/>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53248,23 +53490,23 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
@@ -53278,25 +53520,21 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -53308,151 +53546,139 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>-21.3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
@@ -53466,59 +53692,47 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -53530,83 +53744,91 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>85.8</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>96.3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>3.731%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
@@ -53620,21 +53842,25 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
@@ -53646,25 +53872,21 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1637" t="inlineStr"/>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
@@ -53676,37 +53898,37 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>4.532%</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
@@ -53716,49 +53938,41 @@
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>$21.45T</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr"/>
+      <c r="C1640" t="inlineStr"/>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr"/>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1640" t="inlineStr"/>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -53768,7 +53982,7 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
@@ -53777,88 +53991,104 @@
       <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr"/>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr"/>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>$-102.86B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>$ -104.5B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -53870,27 +54100,31 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1645" t="inlineStr">
         <is>
           <t>2</t>
@@ -53900,29 +54134,29 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -53934,237 +54168,273 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr"/>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>0.595%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>-21.3</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54176,23 +54446,31 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1656" t="inlineStr">
         <is>
           <t>3</t>
@@ -54202,21 +54480,25 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
@@ -54228,151 +54510,171 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>85.8</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>96.3</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr"/>
-      <c r="C1660" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>10-Year Green Gilt Auction</t>
+        </is>
+      </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr"/>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>2.70%</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54384,17 +54686,17 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
@@ -54403,24 +54705,24 @@
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
@@ -54436,25 +54738,21 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
+      <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
@@ -54466,17 +54764,17 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
@@ -54485,38 +54783,30 @@
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
+      <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
           <t>3</t>
@@ -54526,32 +54816,820 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr">
         <is>
+          <t>$ -104.5B</t>
+        </is>
+      </c>
+      <c r="H1669" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr"/>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr"/>
+      <c r="G1670" t="inlineStr"/>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr"/>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr"/>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>BoC Monetary Policy Report</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr"/>
+      <c r="F1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr"/>
+      <c r="H1672" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>BoC Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr"/>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G1673" t="inlineStr"/>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>BoC Press Conference</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr"/>
+      <c r="F1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr"/>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr"/>
+      <c r="E1675" t="inlineStr"/>
+      <c r="F1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr"/>
+      <c r="H1675" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr"/>
+      <c r="E1676" t="inlineStr"/>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="inlineStr"/>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr"/>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr"/>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr"/>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="inlineStr"/>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr"/>
+      <c r="E1679" t="inlineStr"/>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr"/>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr"/>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="inlineStr"/>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr"/>
+      <c r="E1681" t="inlineStr"/>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="inlineStr"/>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr"/>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="inlineStr"/>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr"/>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="inlineStr"/>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr"/>
+      <c r="E1684" t="inlineStr"/>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="inlineStr"/>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr"/>
+      <c r="C1685" t="inlineStr"/>
+      <c r="D1685" t="inlineStr"/>
+      <c r="E1685" t="inlineStr"/>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr"/>
+      <c r="H1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr"/>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr"/>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="inlineStr"/>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr"/>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentJAN/25</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr"/>
+      <c r="E1689" t="inlineStr"/>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="inlineStr"/>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Stock Investment by ForeignersJAN/25</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr"/>
+      <c r="E1690" t="inlineStr"/>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="inlineStr"/>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>05:31 AM</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Car Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr"/>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="inlineStr"/>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>RBA Bulletin</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr"/>
+      <c r="E1692" t="inlineStr"/>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="inlineStr"/>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>Export Prices QoQQ4</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr"/>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Import Prices QoQQ4</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr"/>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="inlineStr">
+        <is>
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1669" t="inlineStr">
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate YoY PrelQ4</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr"/>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>M3 Money Supply YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr"/>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="inlineStr"/>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Private Sector Credit YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr"/>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="H1697" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1697"/>
+  <dimension ref="A1:H1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48375,10 +48375,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1465">
@@ -48409,10 +48407,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48439,10 +48435,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48469,10 +48463,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48499,10 +48491,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48529,10 +48519,8 @@
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48559,10 +48547,8 @@
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48589,10 +48575,8 @@
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48619,10 +48603,8 @@
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48649,10 +48631,8 @@
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48683,10 +48663,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48717,10 +48695,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48755,10 +48731,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1477">
@@ -48789,10 +48763,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48823,10 +48795,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1479">
@@ -48861,10 +48831,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1480">
@@ -48891,10 +48859,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -48925,10 +48891,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -48959,10 +48923,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -48993,10 +48955,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49027,10 +48987,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49065,10 +49023,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1486">
@@ -49103,10 +49059,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1487">
@@ -49129,10 +49083,8 @@
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1488">
@@ -49163,10 +49115,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49201,10 +49151,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1490">
@@ -49235,10 +49183,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49269,10 +49215,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49307,10 +49251,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1493">
@@ -49337,10 +49279,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49367,10 +49307,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1495">
@@ -49397,10 +49335,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49427,10 +49363,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49457,10 +49391,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49487,10 +49419,8 @@
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49517,10 +49447,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49547,10 +49475,8 @@
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -49577,10 +49503,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49607,10 +49531,8 @@
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49637,10 +49559,8 @@
       </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49667,10 +49587,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49697,10 +49615,8 @@
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49727,10 +49643,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49757,10 +49671,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49787,10 +49699,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49813,10 +49723,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49843,256 +49751,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
@@ -50104,75 +50046,83 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -50182,23 +50132,23 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1521" t="inlineStr">
@@ -50210,135 +50160,127 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -50350,61 +50292,61 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr"/>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1527" t="inlineStr">
         <is>
           <t>2</t>
@@ -50414,23 +50356,23 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
@@ -50444,199 +50386,203 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
@@ -50648,33 +50594,29 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -50686,33 +50628,29 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
@@ -50724,67 +50662,67 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
@@ -50796,29 +50734,29 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50830,33 +50768,33 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
@@ -50868,215 +50806,215 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
@@ -51088,57 +51026,57 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
           <t>3</t>
@@ -51148,87 +51086,71 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr"/>
+      <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1549" t="inlineStr"/>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
@@ -51242,31 +51164,27 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
           <t>3</t>
@@ -51276,31 +51194,27 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
           <t>3</t>
@@ -51310,31 +51224,23 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1554" t="inlineStr"/>
       <c r="H1554" t="inlineStr">
         <is>
           <t>3</t>
@@ -51344,69 +51250,53 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1555" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
           <t>2</t>
@@ -51416,31 +51306,27 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
           <t>3</t>
@@ -51450,169 +51336,145 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1558" t="inlineStr"/>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1561" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
@@ -51624,71 +51486,63 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1563" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
@@ -51700,35 +51554,27 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
           <t>3</t>
@@ -51738,35 +51584,27 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
           <t>3</t>
@@ -51776,67 +51614,63 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
@@ -51848,7 +51682,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -51858,51 +51692,55 @@
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1570" t="inlineStr">
         <is>
           <t>3</t>
@@ -51912,25 +51750,21 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr">
@@ -51942,45 +51776,49 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr"/>
-      <c r="C1572" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr"/>
+      <c r="H1572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1573" t="inlineStr"/>
       <c r="H1573" t="inlineStr">
         <is>
           <t>3</t>
@@ -51990,107 +51828,103 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1574" t="inlineStr"/>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
@@ -52106,17 +51940,17 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
@@ -52132,55 +51966,47 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1580" t="inlineStr"/>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
@@ -52190,59 +52016,63 @@
       </c>
     </row>
     <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1581" t="inlineStr"/>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1582" t="inlineStr"/>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>3</t>
@@ -52252,121 +52082,109 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr"/>
+      <c r="C1583" t="inlineStr"/>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1583" t="inlineStr"/>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1583" t="inlineStr"/>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1586" t="inlineStr"/>
       <c r="H1586" t="inlineStr">
         <is>
           <t>3</t>
@@ -52376,29 +52194,29 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52410,27 +52228,31 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1588" t="inlineStr">
         <is>
           <t>3</t>
@@ -52440,27 +52262,31 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1589" t="inlineStr">
         <is>
           <t>3</t>
@@ -52470,97 +52296,93 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1591" t="inlineStr"/>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52572,31 +52394,27 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
           <t>3</t>
@@ -52606,17 +52424,17 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
@@ -52632,17 +52450,17 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
@@ -52658,17 +52476,17 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
@@ -52684,33 +52502,37 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
-      <c r="E1597" t="inlineStr"/>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr"/>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -52720,27 +52542,31 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr"/>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -52750,17 +52576,21 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1599" t="inlineStr">
         <is>
           <t>2</t>
@@ -52770,7 +52600,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -52780,13 +52610,21 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1600" t="inlineStr">
         <is>
           <t>3</t>
@@ -52796,7 +52634,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -52806,11 +52644,15 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
@@ -52822,7 +52664,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -52832,7 +52674,7 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
@@ -52848,7 +52690,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -52858,21 +52700,29 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1604">
-      <c r="A1604" t="inlineStr"/>
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1604" t="inlineStr">
         <is>
           <t>US</t>
@@ -52880,21 +52730,17 @@
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
           <t>3</t>
@@ -52902,7 +52748,11 @@
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="inlineStr"/>
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1605" t="inlineStr">
         <is>
           <t>US</t>
@@ -52910,25 +52760,13 @@
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -52938,107 +52776,107 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr"/>
-      <c r="C1606" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr"/>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
-      <c r="H1606" t="inlineStr"/>
+      <c r="H1606" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
+      <c r="G1607" t="inlineStr"/>
+      <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1607" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
@@ -53050,29 +52888,29 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -53084,29 +52922,29 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -53118,31 +52956,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53152,31 +52986,27 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
@@ -53186,87 +53016,79 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
@@ -53280,43 +53102,31 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr"/>
+      <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr"/>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1617" t="inlineStr"/>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
@@ -53325,126 +53135,138 @@
       <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr"/>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53456,61 +53278,61 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53520,21 +53342,25 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -53546,53 +53372,53 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
@@ -53606,133 +53432,153 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr"/>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -53744,29 +53590,29 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -53778,31 +53624,27 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53812,81 +53654,85 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
@@ -53898,25 +53744,21 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
@@ -53928,23 +53770,23 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
@@ -53958,21 +53800,37 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr"/>
-      <c r="C1640" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
-      <c r="H1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -53982,7 +53840,7 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
@@ -53998,165 +53856,133 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1642" t="inlineStr"/>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1643" t="inlineStr"/>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1644" t="inlineStr"/>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1645" t="inlineStr"/>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -54168,273 +53994,249 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1649" t="inlineStr"/>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1651" t="inlineStr"/>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1653" t="inlineStr"/>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54446,31 +54248,23 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1656" t="inlineStr"/>
       <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
           <t>3</t>
@@ -54480,25 +54274,21 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
@@ -54510,85 +54300,73 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
@@ -54600,17 +54378,17 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
@@ -54626,67 +54404,51 @@
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr"/>
+      <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1662" t="inlineStr"/>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr"/>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
@@ -54696,7 +54458,7 @@
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
@@ -54705,50 +54467,58 @@
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr"/>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr"/>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
@@ -54764,17 +54534,17 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
@@ -54790,21 +54560,25 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
@@ -54816,31 +54590,23 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
           <t>2</t>
@@ -54850,199 +54616,231 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr"/>
       <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr"/>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1676" t="inlineStr">
         <is>
           <t>2</t>
@@ -55052,23 +54850,31 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1677" t="inlineStr">
         <is>
           <t>3</t>
@@ -55078,558 +54884,28 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr"/>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr"/>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr"/>
-      <c r="C1685" t="inlineStr"/>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr"/>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr"/>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>05:31 AM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>Private Sector Credit YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1678"/>
+  <dimension ref="A1:H1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49783,10 +49783,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -49821,10 +49819,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1513">
@@ -49859,10 +49855,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1514">
@@ -49893,10 +49887,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -49931,10 +49923,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1516">
@@ -49965,10 +49955,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50003,10 +49991,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50037,10 +50023,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50075,10 +50059,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50113,10 +50095,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1521">
@@ -50151,10 +50131,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1522">
@@ -50189,10 +50167,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1523">
@@ -50223,10 +50199,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50249,10 +50223,8 @@
       <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1525">
@@ -50283,10 +50255,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50309,10 +50279,8 @@
       <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50347,10 +50315,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1528">
@@ -50377,10 +50343,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50411,10 +50375,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50445,10 +50407,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50479,10 +50439,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -50517,10 +50475,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50551,10 +50507,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50585,10 +50539,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50619,10 +50571,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -50653,10 +50603,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1537">
@@ -50687,10 +50635,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1538">
@@ -50725,10 +50671,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1539">
@@ -50759,10 +50703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50797,10 +50739,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50835,10 +50775,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -50873,10 +50811,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -50911,10 +50847,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -50949,10 +50883,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -50983,10 +50915,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51017,10 +50947,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51047,10 +50975,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -51077,54 +51003,56 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr"/>
-      <c r="C1549" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr"/>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr"/>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1550" t="inlineStr"/>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
           <t>3</t>
@@ -51134,107 +51062,103 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1551" t="inlineStr"/>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
@@ -51250,17 +51174,17 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
@@ -51276,55 +51200,47 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1556" t="inlineStr"/>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
@@ -51334,59 +51250,63 @@
       </c>
     </row>
     <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1558" t="inlineStr"/>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1559" t="inlineStr"/>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1559" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1559" t="inlineStr">
         <is>
           <t>3</t>
@@ -51396,121 +51316,109 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr"/>
+      <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1560" t="inlineStr"/>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
         <is>
           <t>3</t>
@@ -51520,29 +51428,29 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
@@ -51554,27 +51462,31 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1565" t="inlineStr">
         <is>
           <t>3</t>
@@ -51584,27 +51496,31 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
           <t>3</t>
@@ -51614,97 +51530,93 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
@@ -51716,31 +51628,27 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
         <is>
           <t>3</t>
@@ -51750,17 +51658,17 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
@@ -51776,17 +51684,17 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
@@ -51802,17 +51710,17 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
@@ -51828,33 +51736,37 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr"/>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -51864,27 +51776,31 @@
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -51894,17 +51810,21 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
           <t>2</t>
@@ -51914,7 +51834,7 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -51924,13 +51844,21 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
           <t>3</t>
@@ -51940,7 +51868,7 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -51950,11 +51878,15 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
@@ -51966,7 +51898,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -51976,7 +51908,7 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
@@ -51992,7 +51924,7 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -52002,21 +51934,29 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1581">
-      <c r="A1581" t="inlineStr"/>
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1581" t="inlineStr">
         <is>
           <t>US</t>
@@ -52024,21 +51964,17 @@
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
           <t>3</t>
@@ -52046,7 +51982,11 @@
       </c>
     </row>
     <row r="1582">
-      <c r="A1582" t="inlineStr"/>
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1582" t="inlineStr">
         <is>
           <t>US</t>
@@ -52054,25 +51994,13 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
         <is>
           <t>3</t>
@@ -52082,107 +52010,107 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr"/>
-      <c r="C1583" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr"/>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1585" t="inlineStr"/>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1585" t="inlineStr"/>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1586" t="inlineStr"/>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr"/>
       <c r="H1586" t="inlineStr">
@@ -52194,29 +52122,29 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52228,29 +52156,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52262,31 +52190,27 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
           <t>3</t>
@@ -52296,31 +52220,27 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
         <is>
           <t>3</t>
@@ -52330,87 +52250,79 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
-      <c r="E1591" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr"/>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
@@ -52424,43 +52336,31 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1594" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr"/>
+      <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr"/>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr"/>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1594" t="inlineStr"/>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
@@ -52469,126 +52369,138 @@
       <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr"/>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52600,61 +52512,61 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52664,21 +52576,25 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
@@ -52690,53 +52606,53 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -52750,133 +52666,153 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr"/>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr"/>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
@@ -52888,29 +52824,29 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -52922,31 +52858,27 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>3</t>
@@ -52956,81 +52888,85 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
@@ -53042,25 +52978,21 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
@@ -53072,23 +53004,23 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
@@ -53102,21 +53034,37 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr"/>
-      <c r="C1617" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
-      <c r="H1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -53126,7 +53074,7 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
@@ -53142,165 +53090,133 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1621" t="inlineStr"/>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1622" t="inlineStr"/>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53312,273 +53228,249 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -53590,31 +53482,23 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
           <t>3</t>
@@ -53624,25 +53508,21 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -53654,85 +53534,73 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1637" t="inlineStr"/>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
@@ -53744,17 +53612,17 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
@@ -53770,67 +53638,51 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr"/>
+      <c r="C1639" t="inlineStr"/>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1639" t="inlineStr"/>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -53840,7 +53692,7 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
@@ -53849,50 +53701,58 @@
       <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr"/>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>12.75%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>Foreign Bond InvestmentJAN/25</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
@@ -53908,17 +53768,17 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Stock Investment by ForeignersJAN/25</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
@@ -53934,21 +53794,25 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>Car Production YoYDEC</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr"/>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>-30%</t>
+        </is>
+      </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
@@ -53960,31 +53824,23 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>RBA Bulletin</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="E1646" t="inlineStr"/>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>2</t>
@@ -53994,199 +53850,231 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>Export Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr"/>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>Import Prices QoQQ4</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>BoC Monetary Policy Report</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>BoC Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>7.77%</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>BoC Press Conference</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr"/>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>2</t>
@@ -54196,23 +54084,31 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Household Consumption MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>3</t>
@@ -54222,21 +54118,25 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Economic Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54248,69 +54148,77 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
@@ -54326,17 +54234,17 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
@@ -54352,17 +54260,17 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
@@ -54375,542 +54283,6 @@
         </is>
       </c>
     </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr"/>
-      <c r="C1662" t="inlineStr"/>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr"/>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr"/>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr"/>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>12.75%</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr"/>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr"/>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>05:31 AM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>Car Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>RBA Bulletin</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr"/>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>Export Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>Import Prices QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>Private Sector Credit YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>Household Consumption MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>Economic Confidence IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
